--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/HII/hii.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/HII/hii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\HII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\HII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB2D2D2-90D1-474D-82BE-DDEFF768F989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5948009-4C98-4C78-A79C-F442771CBBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HII Returns &amp; Portfolio" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>Inception</t>
   </si>
@@ -163,9 +163,6 @@
     <t xml:space="preserve">Baa1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Caa3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">NR </t>
   </si>
   <si>
@@ -184,45 +181,12 @@
     <t xml:space="preserve">Caa1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ca </t>
-  </si>
-  <si>
     <t>Number of Holdings</t>
   </si>
   <si>
     <t>Modified Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">REIT </t>
-  </si>
-  <si>
-    <t># of securities: 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL - DISCRETIONARY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOMOTIVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOME CONSTRUCTION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECHNOLOGY HARDWARE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSET MANAGEMENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METALS &amp; MINING </t>
-  </si>
-  <si>
-    <t>MONEY MARKET</t>
-  </si>
-  <si>
-    <t>OIL &amp; GAS</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -232,12 +196,6 @@
     <t xml:space="preserve">AAA </t>
   </si>
   <si>
-    <t xml:space="preserve">Pitney Bowes, Inc. 4.625%, Due 03/15/2024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO Group, Inc. (The) 5.875%, Due 01/15/2022 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Beazer Homes USA, Inc. 5.875%, Due 10/15/2027 </t>
   </si>
   <si>
@@ -262,10 +220,46 @@
     <t xml:space="preserve">C </t>
   </si>
   <si>
-    <t>Modified duration: 3.94</t>
-  </si>
-  <si>
-    <t>Money Market</t>
+    <t xml:space="preserve">Retail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Parts&amp;Equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REITS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Builders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil&amp;Gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment Companies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversified Finan Serv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titan International, Inc. 6.5%, Due 11/30/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colony Capital, Inc. 5%, Due 04/15/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caa2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t># of securities: 31</t>
+  </si>
+  <si>
+    <t>Modified duration: 3.59</t>
   </si>
 </sst>
 </file>
@@ -743,7 +737,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -958,9 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1288,24 +1279,26 @@
   </sheetPr>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="2"/>
-    <col min="11" max="11" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="69" t="s">
         <v>15</v>
       </c>
@@ -1317,12 +1310,12 @@
       <c r="H2" s="70"/>
       <c r="I2" s="71"/>
     </row>
-    <row r="3" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="24" t="s">
         <v>1</v>
@@ -1377,358 +1370,358 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:H10" si="1">L5*100</f>
-        <v>7.41</v>
+        <v>3.94</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>9.99</v>
+        <v>3.94</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>9.99</v>
+        <v>30.34</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>5.5100000000000007</v>
+        <v>6.32</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>12.33</v>
+        <v>11.48</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>2.0099999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="I5" s="27">
         <f>R5*100</f>
-        <v>3.34</v>
+        <v>3.5900000000000003</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="58">
-        <v>7.4099999999999999E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="M5" s="58">
-        <v>9.9900000000000003E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="N5" s="58">
-        <v>9.9900000000000003E-2</v>
+        <v>0.3034</v>
       </c>
       <c r="O5" s="58">
-        <v>5.5100000000000003E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="P5" s="58">
-        <v>0.12330000000000001</v>
+        <v>0.1148</v>
       </c>
       <c r="Q5" s="58">
-        <v>2.01E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="R5" s="58">
-        <v>3.3399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>7.19</v>
+        <v>3.75</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>9.43</v>
+        <v>3.75</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>9.43</v>
+        <v>29.69</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>4.71</v>
+        <v>5.6099999999999994</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>11.469999999999999</v>
+        <v>10.69</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="I6" s="27">
         <f>R6*100</f>
-        <v>2.59</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="58">
-        <v>7.1900000000000006E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="M6" s="58">
-        <v>9.4299999999999995E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="N6" s="58">
-        <v>9.4299999999999995E-2</v>
+        <v>0.2969</v>
       </c>
       <c r="O6" s="58">
-        <v>4.7100000000000003E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="P6" s="58">
-        <v>0.1147</v>
+        <v>0.1069</v>
       </c>
       <c r="Q6" s="58">
-        <v>1.26E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="R6" s="58">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>4.7699999999999996</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>4.7699999999999996</v>
+        <v>24.15</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>3.81</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>11.24</v>
+        <v>10.4</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I7" s="27">
         <f>R7*100</f>
-        <v>2.94</v>
+        <v>3.19</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="58">
-        <v>2.3E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="M7" s="58">
-        <v>4.7699999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="N7" s="58">
-        <v>4.7699999999999999E-2</v>
+        <v>0.24149999999999999</v>
       </c>
       <c r="O7" s="58">
-        <v>3.8100000000000002E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="P7" s="58">
-        <v>0.1124</v>
+        <v>0.104</v>
       </c>
       <c r="Q7" s="58">
-        <v>1.52E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="R7" s="58">
-        <v>2.9399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>6.45</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>23.150000000000002</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>5.8999999999999995</v>
+        <v>6.5100000000000007</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>8.41</v>
+        <v>7.9</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>6.61</v>
+        <v>6.3</v>
       </c>
       <c r="I8" s="29">
         <f>R8*100</f>
-        <v>7.4399999999999995</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="59">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="M8" s="58">
-        <v>6.2E-2</v>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="M8" s="59">
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="N8" s="58">
-        <v>6.2E-2</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="O8" s="58">
-        <v>5.8999999999999997E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="P8" s="58">
-        <v>8.4099999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q8" s="58">
-        <v>6.6100000000000006E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="R8" s="58">
-        <v>7.4399999999999994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>7.46</v>
+        <v>3.9899999999999998</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>10.54</v>
+        <v>3.9899999999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>10.54</v>
+        <v>30.990000000000002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>5.7700000000000005</v>
+        <v>6.67</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>12.590000000000002</v>
+        <v>11.81</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="27">
         <f t="shared" ref="I9:I10" si="2">R9*100</f>
-        <v>1.48</v>
+        <v>1.94</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="58">
-        <v>7.46E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="M9" s="58">
-        <v>0.10539999999999999</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="N9" s="58">
-        <v>0.10539999999999999</v>
+        <v>0.30990000000000001</v>
       </c>
       <c r="O9" s="58">
-        <v>5.7700000000000001E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="P9" s="58">
-        <v>0.12590000000000001</v>
+        <v>0.1181</v>
       </c>
       <c r="Q9" s="43" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="58">
-        <v>1.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>6.45</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>23.150000000000002</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>5.8999999999999995</v>
+        <v>6.5100000000000007</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>8.41</v>
+        <v>7.9</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="29">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="64">
         <f>L8</f>
-        <v>6.4500000000000002E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="M10" s="64">
         <f t="shared" ref="M10:P10" si="3">M8</f>
-        <v>6.2E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="N10" s="64">
         <f t="shared" si="3"/>
-        <v>6.2E-2</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="O10" s="64">
         <f t="shared" si="3"/>
-        <v>5.8999999999999997E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="P10" s="64">
         <f t="shared" si="3"/>
-        <v>8.4099999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q10" s="43" t="s">
         <v>18</v>
       </c>
       <c r="R10" s="58">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="22"/>
       <c r="F11" s="3"/>
@@ -1736,7 +1729,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="31" t="s">
         <v>7</v>
@@ -1749,13 +1742,13 @@
       <c r="H12" s="74"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="21">
-        <v>0.13239999999999999</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="51" t="s">
@@ -1766,77 +1759,77 @@
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="33" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21">
-        <v>0.11550000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="52">
-        <v>2.4899999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H14" s="48">
-        <v>2.0500000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21">
-        <v>8.4699999999999998E-2</v>
+        <v>0.1016</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="52">
-        <v>1.8599999999999998E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="H15" s="48">
-        <v>1.4E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21">
-        <v>8.09E-2</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="53">
-        <v>2.86E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="H16" s="50">
-        <v>2.4E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21">
-        <v>7.2999999999999995E-2</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18" s="21">
-        <v>7.1900000000000006E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>6</v>
@@ -1844,52 +1837,52 @@
       <c r="G18" s="68"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" s="21">
-        <v>6.7299999999999999E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="19">
+        <v>31</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4.48E-2</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="19">
-        <v>33</v>
-      </c>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="21">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" s="20">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C21" s="21">
-        <v>4.9000000000000002E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="G21" s="34"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="21">
-        <v>0.26950000000000002</v>
+        <v>0.20930000000000001</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>8</v>
@@ -1897,221 +1890,221 @@
       <c r="G22" s="32"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="F23" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G23" s="21">
-        <v>8.09E-2</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="I23" s="23"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="32"/>
       <c r="F24" s="9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G24" s="21">
-        <v>7.3899999999999993E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="I24" s="23"/>
       <c r="M24" s="45"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C25" s="21">
-        <v>8.09E-2</v>
+        <v>0.2445</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G25" s="21">
-        <v>6.7299999999999999E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="I25" s="23"/>
       <c r="M25" s="45"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="21">
-        <v>5.5999999999999999E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G26" s="21">
-        <v>5.4399999999999997E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="I26" s="23"/>
       <c r="M26" s="45"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="21">
-        <v>3.6299999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G27" s="21">
-        <v>4.6399999999999997E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="I27" s="23"/>
       <c r="M27" s="45"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="21">
-        <v>0.1331</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G28" s="21">
-        <v>4.2500000000000003E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="I28" s="23"/>
       <c r="M28" s="45"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="36" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C29" s="21">
-        <v>3.9800000000000002E-2</v>
+        <v>7.5300000000000006E-2</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G29" s="21">
-        <v>4.2200000000000001E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="I29" s="23"/>
       <c r="M29" s="45"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="21">
-        <v>2.6499999999999999E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G30" s="21">
-        <v>4.19E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="I30" s="23"/>
       <c r="M30" s="45"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="21">
-        <v>0.1636</v>
+        <v>5.28E-2</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G31" s="21">
-        <v>0.04</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="I31" s="23"/>
       <c r="M31" s="44"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="56">
-        <v>0.1986</v>
+        <v>0.20430000000000001</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G32" s="40">
-        <v>3.9800000000000002E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="I32" s="23"/>
       <c r="M32" s="44"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="55" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="56">
-        <v>0.1056</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="G33" s="34"/>
       <c r="I33" s="23"/>
       <c r="M33" s="44"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="56">
-        <v>4.9000000000000002E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="G34" s="34"/>
       <c r="I34" s="23"/>
       <c r="M34" s="44"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="55" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C35" s="56">
-        <v>2.0000000000000001E-4</v>
+        <v>0.02</v>
       </c>
       <c r="G35" s="34"/>
       <c r="I35" s="23"/>
       <c r="M35" s="44"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C36" s="56">
-        <v>3.8199999999999998E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="G36" s="34"/>
       <c r="I36" s="23"/>
       <c r="M36" s="44"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="56">
-        <v>1.7899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="34"/>
       <c r="I37" s="23"/>
       <c r="M37" s="44"/>
     </row>
-    <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="40">
-        <v>0.1047</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -2121,54 +2114,54 @@
       <c r="I38" s="41"/>
       <c r="M38" s="44"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M40" s="44"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M41" s="44"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M42" s="44"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M43" s="44"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="M44" s="44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="M45" s="44"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="M46" s="44"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="M47" s="44"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="M48" s="44"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -2192,320 +2185,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="42"/>
+    <col min="1" max="1" width="45.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="65"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="75">
-        <v>8.09E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="75">
-        <v>7.3899999999999993E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="75">
-        <v>6.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="75">
-        <v>5.4399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="75">
-        <v>4.6399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="75">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="60">
+        <v>0.23319999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="60">
+        <v>6.3399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="60">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="60">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="60">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="60">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="60">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="60">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="60">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="75">
-        <v>4.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="75">
-        <v>4.19E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="75">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="75">
-        <v>3.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="60">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="60">
-        <v>0.13239999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.23319999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B18" s="60">
-        <v>0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="60">
-        <v>8.4699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.1016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="60">
-        <v>8.09E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.8699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B21" s="60">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B22" s="60">
-        <v>7.1900000000000006E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B23" s="60">
-        <v>6.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B24" s="60">
-        <v>5.5899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B25" s="60">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="60">
-        <v>0.26950000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.20930000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="75">
-        <v>8.09E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="60">
+        <v>0.2445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="75">
-        <v>5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="B29" s="60">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="60">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="60">
+        <v>8.2299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="60">
+        <v>7.5300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="60">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="75">
-        <v>3.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="75">
-        <v>0.1331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="75">
-        <v>3.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="75">
-        <v>2.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="s">
+      <c r="B34" s="60">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="60">
+        <v>0.20430000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="60">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="75">
-        <v>0.1636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="75">
-        <v>0.1986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="75">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="75">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="B37" s="60">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="60">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="60">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="75">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="75">
-        <v>3.8199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="75">
-        <v>1.7899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="75">
-        <v>0.1047</v>
+      <c r="B41" s="60">
+        <v>7.8700000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2517,20 +2512,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFA01F8-0D9D-4F9E-A50A-5E667CF7E46F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2544,52 +2539,52 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'HII Returns &amp; Portfolio'!F14</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="62">
         <f>'HII Returns &amp; Portfolio'!G14*100</f>
-        <v>2.4899999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="C2" s="62">
         <f>'HII Returns &amp; Portfolio'!H14*100</f>
-        <v>2.0500000000000003</v>
+        <v>2.15</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'HII Returns &amp; Portfolio'!F15</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="62">
         <f>'HII Returns &amp; Portfolio'!G15*100</f>
-        <v>1.8599999999999999</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="C3" s="62">
         <f>'HII Returns &amp; Portfolio'!H15*100</f>
-        <v>1.4000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'HII Returns &amp; Portfolio'!F16</f>
         <v>Class I</v>
       </c>
       <c r="B4" s="62">
         <f>'HII Returns &amp; Portfolio'!G16*100</f>
-        <v>2.86</v>
+        <v>3.66</v>
       </c>
       <c r="C4" s="62">
         <f>'HII Returns &amp; Portfolio'!H16*100</f>
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2604,21 +2599,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD386F3-15A7-438A-B9C5-3B3432271F34}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.109375" style="62"/>
+    <col min="2" max="8" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'HII Returns &amp; Portfolio'!B4</f>
         <v>Share Class/Benchmark</v>
@@ -2655,178 +2648,178 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'HII Returns &amp; Portfolio'!B5</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="62">
         <f>'HII Returns &amp; Portfolio'!C5</f>
-        <v>7.41</v>
+        <v>3.94</v>
       </c>
       <c r="C2" s="62">
         <f>'HII Returns &amp; Portfolio'!D5</f>
-        <v>9.99</v>
+        <v>3.94</v>
       </c>
       <c r="D2" s="62">
         <f>'HII Returns &amp; Portfolio'!E5</f>
-        <v>9.99</v>
+        <v>30.34</v>
       </c>
       <c r="E2" s="62">
         <f>'HII Returns &amp; Portfolio'!F5</f>
-        <v>5.5100000000000007</v>
+        <v>6.32</v>
       </c>
       <c r="F2" s="62">
         <f>'HII Returns &amp; Portfolio'!G5</f>
-        <v>12.33</v>
+        <v>11.48</v>
       </c>
       <c r="G2" s="62">
         <f>'HII Returns &amp; Portfolio'!H5</f>
-        <v>2.0099999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="H2" s="62">
         <f>'HII Returns &amp; Portfolio'!I5</f>
-        <v>3.34</v>
+        <v>3.5900000000000003</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'HII Returns &amp; Portfolio'!B6</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="62">
         <f>'HII Returns &amp; Portfolio'!C6</f>
-        <v>7.19</v>
+        <v>3.75</v>
       </c>
       <c r="C3" s="62">
         <f>'HII Returns &amp; Portfolio'!D6</f>
-        <v>9.43</v>
+        <v>3.75</v>
       </c>
       <c r="D3" s="62">
         <f>'HII Returns &amp; Portfolio'!E6</f>
-        <v>9.43</v>
+        <v>29.69</v>
       </c>
       <c r="E3" s="62">
         <f>'HII Returns &amp; Portfolio'!F6</f>
-        <v>4.71</v>
+        <v>5.6099999999999994</v>
       </c>
       <c r="F3" s="62">
         <f>'HII Returns &amp; Portfolio'!G6</f>
-        <v>11.469999999999999</v>
+        <v>10.69</v>
       </c>
       <c r="G3" s="62">
         <f>'HII Returns &amp; Portfolio'!H6</f>
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="H3" s="62">
         <f>'HII Returns &amp; Portfolio'!I6</f>
-        <v>2.59</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'HII Returns &amp; Portfolio'!B7</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B4" s="62">
         <f>'HII Returns &amp; Portfolio'!C7</f>
-        <v>2.2999999999999998</v>
+        <v>-1</v>
       </c>
       <c r="C4" s="62">
         <f>'HII Returns &amp; Portfolio'!D7</f>
-        <v>4.7699999999999996</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="62">
         <f>'HII Returns &amp; Portfolio'!E7</f>
-        <v>4.7699999999999996</v>
+        <v>24.15</v>
       </c>
       <c r="E4" s="62">
         <f>'HII Returns &amp; Portfolio'!F7</f>
-        <v>3.81</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F4" s="62">
         <f>'HII Returns &amp; Portfolio'!G7</f>
-        <v>11.24</v>
+        <v>10.4</v>
       </c>
       <c r="G4" s="62">
         <f>'HII Returns &amp; Portfolio'!H7</f>
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H4" s="62">
         <f>'HII Returns &amp; Portfolio'!I7</f>
-        <v>2.94</v>
+        <v>3.19</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'HII Returns &amp; Portfolio'!B8</f>
         <v>ML US Cash Pay HY</v>
       </c>
       <c r="B5" s="62">
         <f>'HII Returns &amp; Portfolio'!C8</f>
-        <v>6.45</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="C5" s="62">
         <f>'HII Returns &amp; Portfolio'!D8</f>
-        <v>6.2</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="D5" s="62">
         <f>'HII Returns &amp; Portfolio'!E8</f>
-        <v>6.2</v>
+        <v>23.150000000000002</v>
       </c>
       <c r="E5" s="62">
         <f>'HII Returns &amp; Portfolio'!F8</f>
-        <v>5.8999999999999995</v>
+        <v>6.5100000000000007</v>
       </c>
       <c r="F5" s="62">
         <f>'HII Returns &amp; Portfolio'!G8</f>
-        <v>8.41</v>
+        <v>7.9</v>
       </c>
       <c r="G5" s="62">
         <f>'HII Returns &amp; Portfolio'!H8</f>
-        <v>6.61</v>
+        <v>6.3</v>
       </c>
       <c r="H5" s="62">
         <f>'HII Returns &amp; Portfolio'!I8</f>
-        <v>7.4399999999999995</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'HII Returns &amp; Portfolio'!B9</f>
         <v>Class I</v>
       </c>
       <c r="B6" s="62">
         <f>'HII Returns &amp; Portfolio'!C9</f>
-        <v>7.46</v>
+        <v>3.9899999999999998</v>
       </c>
       <c r="C6" s="62">
         <f>'HII Returns &amp; Portfolio'!D9</f>
-        <v>10.54</v>
+        <v>3.9899999999999998</v>
       </c>
       <c r="D6" s="62">
         <f>'HII Returns &amp; Portfolio'!E9</f>
-        <v>10.54</v>
+        <v>30.990000000000002</v>
       </c>
       <c r="E6" s="62">
         <f>'HII Returns &amp; Portfolio'!F9</f>
-        <v>5.7700000000000005</v>
+        <v>6.67</v>
       </c>
       <c r="F6" s="62">
         <f>'HII Returns &amp; Portfolio'!G9</f>
-        <v>12.590000000000002</v>
+        <v>11.81</v>
       </c>
       <c r="G6" s="62" t="str">
         <f>'HII Returns &amp; Portfolio'!H9</f>
@@ -2834,36 +2827,36 @@
       </c>
       <c r="H6" s="62">
         <f>'HII Returns &amp; Portfolio'!I9</f>
-        <v>1.48</v>
+        <v>1.94</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'HII Returns &amp; Portfolio'!B10</f>
         <v>ML US Cash Pay HY</v>
       </c>
       <c r="B7" s="62">
         <f>'HII Returns &amp; Portfolio'!C10</f>
-        <v>6.45</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="C7" s="62">
         <f>'HII Returns &amp; Portfolio'!D10</f>
-        <v>6.2</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="D7" s="62">
         <f>'HII Returns &amp; Portfolio'!E10</f>
-        <v>6.2</v>
+        <v>23.150000000000002</v>
       </c>
       <c r="E7" s="62">
         <f>'HII Returns &amp; Portfolio'!F10</f>
-        <v>5.8999999999999995</v>
+        <v>6.5100000000000007</v>
       </c>
       <c r="F7" s="62">
         <f>'HII Returns &amp; Portfolio'!G10</f>
-        <v>8.41</v>
+        <v>7.9</v>
       </c>
       <c r="G7" s="62" t="str">
         <f>'HII Returns &amp; Portfolio'!H10</f>
@@ -2871,7 +2864,7 @@
       </c>
       <c r="H7" s="62">
         <f>'HII Returns &amp; Portfolio'!I10</f>
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -2886,19 +2879,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F831B681-C352-4326-B803-DFB986830682}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="63"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2909,131 +2902,131 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'HII Returns &amp; Portfolio'!F23</f>
         <v>Cash</v>
       </c>
       <c r="B2" s="63">
         <f>'HII Returns &amp; Portfolio'!G23*100</f>
-        <v>8.09</v>
+        <v>23.32</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'HII Returns &amp; Portfolio'!F24</f>
         <v xml:space="preserve">L Brands, Inc. 6.75%, Due 07/01/2036 </v>
       </c>
       <c r="B3" s="63">
         <f>'HII Returns &amp; Portfolio'!G24*100</f>
-        <v>7.39</v>
+        <v>6.34</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'HII Returns &amp; Portfolio'!F25</f>
-        <v xml:space="preserve">Pitney Bowes, Inc. 4.625%, Due 03/15/2024 </v>
+        <v xml:space="preserve">Beazer Homes USA, Inc. 5.875%, Due 10/15/2027 </v>
       </c>
       <c r="B4" s="63">
         <f>'HII Returns &amp; Portfolio'!G25*100</f>
-        <v>6.7299999999999995</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'HII Returns &amp; Portfolio'!F26</f>
-        <v xml:space="preserve">GEO Group, Inc. (The) 5.875%, Due 01/15/2022 </v>
+        <v xml:space="preserve">Enova International, Inc. 8.5%, Due 09/15/2025 </v>
       </c>
       <c r="B5" s="63">
         <f>'HII Returns &amp; Portfolio'!G26*100</f>
-        <v>5.4399999999999995</v>
+        <v>3.45</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'HII Returns &amp; Portfolio'!F27</f>
-        <v xml:space="preserve">Beazer Homes USA, Inc. 5.875%, Due 10/15/2027 </v>
+        <v xml:space="preserve">American Axle &amp; Manufacturing, Inc. 6.25%, Due 04/01/2025 </v>
       </c>
       <c r="B6" s="63">
         <f>'HII Returns &amp; Portfolio'!G27*100</f>
-        <v>4.6399999999999997</v>
+        <v>3.4299999999999997</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'HII Returns &amp; Portfolio'!F28</f>
-        <v xml:space="preserve">American Axle &amp; Manufacturing, Inc. 6.25%, Due 04/01/2025 </v>
+        <v xml:space="preserve">Dana, Inc. 5.5%, Due 12/15/2024 </v>
       </c>
       <c r="B7" s="63">
         <f>'HII Returns &amp; Portfolio'!G28*100</f>
-        <v>4.25</v>
+        <v>3.4099999999999997</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'HII Returns &amp; Portfolio'!F29</f>
-        <v xml:space="preserve">Dana, Inc. 5.5%, Due 12/15/2024 </v>
+        <v xml:space="preserve">Under Armour, Inc. 3.25%, Due 06/15/2026 </v>
       </c>
       <c r="B8" s="63">
         <f>'HII Returns &amp; Portfolio'!G29*100</f>
-        <v>4.22</v>
+        <v>3.37</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'HII Returns &amp; Portfolio'!F30</f>
-        <v xml:space="preserve">Under Armour, Inc. 3.25%, Due 06/15/2026 </v>
+        <v xml:space="preserve">Occidental Petroleum Corporation 6.6%, Due 03/15/2046 </v>
       </c>
       <c r="B9" s="63">
         <f>'HII Returns &amp; Portfolio'!G30*100</f>
-        <v>4.1900000000000004</v>
+        <v>3.37</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'HII Returns &amp; Portfolio'!F31</f>
-        <v xml:space="preserve">Enova International, Inc. 8.5%, Due 09/15/2025 </v>
+        <v xml:space="preserve">Titan International, Inc. 6.5%, Due 11/30/2023 </v>
       </c>
       <c r="B10" s="63">
         <f>'HII Returns &amp; Portfolio'!G31*100</f>
-        <v>4</v>
+        <v>3.3300000000000005</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'HII Returns &amp; Portfolio'!F32</f>
-        <v xml:space="preserve">Occidental Petroleum Corporation 6.6%, Due 03/15/2046 </v>
+        <v xml:space="preserve">Colony Capital, Inc. 5%, Due 04/15/2023 </v>
       </c>
       <c r="B11" s="63">
         <f>'HII Returns &amp; Portfolio'!G32*100</f>
-        <v>3.9800000000000004</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3047,19 +3040,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587FE903-4682-4892-B1C1-E2E0FA4989A5}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="63"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3070,131 +3063,131 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'HII Returns &amp; Portfolio'!B13</f>
-        <v xml:space="preserve">RETAIL - DISCRETIONARY </v>
+        <v>Cash</v>
       </c>
       <c r="B2" s="63">
         <f>'HII Returns &amp; Portfolio'!C13*100</f>
-        <v>13.239999999999998</v>
+        <v>23.32</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'HII Returns &amp; Portfolio'!B14</f>
-        <v xml:space="preserve">REIT </v>
+        <v xml:space="preserve">Retail </v>
       </c>
       <c r="B3" s="63">
         <f>'HII Returns &amp; Portfolio'!C14*100</f>
-        <v>11.55</v>
+        <v>12.8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'HII Returns &amp; Portfolio'!B15</f>
-        <v xml:space="preserve">AUTOMOTIVE </v>
+        <v xml:space="preserve">Auto Parts&amp;Equipment </v>
       </c>
       <c r="B4" s="63">
         <f>'HII Returns &amp; Portfolio'!C15*100</f>
-        <v>8.4699999999999989</v>
+        <v>10.16</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'HII Returns &amp; Portfolio'!B16</f>
-        <v>MONEY MARKET</v>
+        <v xml:space="preserve">REITS </v>
       </c>
       <c r="B5" s="63">
         <f>'HII Returns &amp; Portfolio'!C16*100</f>
-        <v>8.09</v>
+        <v>6.87</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'HII Returns &amp; Portfolio'!B17</f>
-        <v xml:space="preserve">HOME CONSTRUCTION </v>
+        <v xml:space="preserve">Mining </v>
       </c>
       <c r="B6" s="63">
         <f>'HII Returns &amp; Portfolio'!C17*100</f>
-        <v>7.3</v>
+        <v>6.77</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'HII Returns &amp; Portfolio'!B18</f>
-        <v>OIL &amp; GAS</v>
+        <v xml:space="preserve">Home Builders </v>
       </c>
       <c r="B7" s="63">
         <f>'HII Returns &amp; Portfolio'!C18*100</f>
-        <v>7.19</v>
+        <v>5.87</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'HII Returns &amp; Portfolio'!B19</f>
-        <v xml:space="preserve">TECHNOLOGY HARDWARE </v>
+        <v xml:space="preserve">Oil&amp;Gas </v>
       </c>
       <c r="B8" s="63">
         <f>'HII Returns &amp; Portfolio'!C19*100</f>
-        <v>6.7299999999999995</v>
+        <v>5.35</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'HII Returns &amp; Portfolio'!B20</f>
-        <v xml:space="preserve">ASSET MANAGEMENT </v>
+        <v xml:space="preserve">Investment Companies </v>
       </c>
       <c r="B9" s="63">
         <f>'HII Returns &amp; Portfolio'!C20*100</f>
-        <v>5.59</v>
+        <v>4.4799999999999995</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'HII Returns &amp; Portfolio'!B21</f>
-        <v xml:space="preserve">METALS &amp; MINING </v>
+        <v xml:space="preserve">Diversified Finan Serv </v>
       </c>
       <c r="B10" s="63">
         <f>'HII Returns &amp; Portfolio'!C21*100</f>
-        <v>4.9000000000000004</v>
+        <v>3.46</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'HII Returns &amp; Portfolio'!B22</f>
         <v>Other</v>
       </c>
       <c r="B11" s="63">
         <f>'HII Returns &amp; Portfolio'!C22*100</f>
-        <v>26.950000000000003</v>
+        <v>20.93</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3208,18 +3201,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A173C2CF-9432-4353-881D-E7D0955BCF6C}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3230,25 +3223,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <f>'HII Returns &amp; Portfolio'!G19</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <f>'HII Returns &amp; Portfolio'!G20</f>
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3262,18 +3255,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F591262-D0F6-4F20-99BD-A432A57A08ED}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="63"/>
+    <col min="2" max="2" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3284,183 +3277,183 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'HII Returns &amp; Portfolio'!B25</f>
         <v xml:space="preserve">AAA </v>
       </c>
       <c r="B2" s="63">
         <f>'HII Returns &amp; Portfolio'!C25*100</f>
-        <v>8.09</v>
+        <v>24.45</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'HII Returns &amp; Portfolio'!B26</f>
         <v xml:space="preserve">Baa1 </v>
       </c>
       <c r="B3" s="63">
         <f>'HII Returns &amp; Portfolio'!C26*100</f>
-        <v>0.55999999999999994</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'HII Returns &amp; Portfolio'!B27</f>
         <v xml:space="preserve">Baa2 </v>
       </c>
       <c r="B4" s="63">
         <f>'HII Returns &amp; Portfolio'!C27*100</f>
-        <v>3.63</v>
+        <v>3.0700000000000003</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'HII Returns &amp; Portfolio'!B28</f>
         <v xml:space="preserve">Baa3 </v>
       </c>
       <c r="B5" s="63">
         <f>'HII Returns &amp; Portfolio'!C28*100</f>
-        <v>13.309999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'HII Returns &amp; Portfolio'!B29</f>
         <v xml:space="preserve">Ba2 </v>
       </c>
       <c r="B6" s="63">
         <f>'HII Returns &amp; Portfolio'!C29*100</f>
-        <v>3.9800000000000004</v>
+        <v>7.53</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'HII Returns &amp; Portfolio'!B30</f>
         <v xml:space="preserve">Ba3 </v>
       </c>
       <c r="B7" s="63">
         <f>'HII Returns &amp; Portfolio'!C30*100</f>
-        <v>2.65</v>
+        <v>2.2800000000000002</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'HII Returns &amp; Portfolio'!B31</f>
         <v xml:space="preserve">B1 </v>
       </c>
       <c r="B8" s="63">
         <f>'HII Returns &amp; Portfolio'!C31*100</f>
-        <v>16.36</v>
+        <v>5.28</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'HII Returns &amp; Portfolio'!B32</f>
         <v xml:space="preserve">B2 </v>
       </c>
       <c r="B9" s="63">
         <f>'HII Returns &amp; Portfolio'!C32*100</f>
-        <v>19.86</v>
+        <v>20.43</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'HII Returns &amp; Portfolio'!B33</f>
         <v xml:space="preserve">B3 </v>
       </c>
       <c r="B10" s="63">
         <f>'HII Returns &amp; Portfolio'!C33*100</f>
-        <v>10.56</v>
+        <v>8.64</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'HII Returns &amp; Portfolio'!B34</f>
         <v xml:space="preserve">Caa1 </v>
       </c>
       <c r="B11" s="63">
         <f>'HII Returns &amp; Portfolio'!C34*100</f>
-        <v>4.9000000000000004</v>
+        <v>4.18</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'HII Returns &amp; Portfolio'!B35</f>
-        <v xml:space="preserve">Caa3 </v>
+        <v xml:space="preserve">Caa2 </v>
       </c>
       <c r="B12" s="63">
         <f>'HII Returns &amp; Portfolio'!C35*100</f>
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'HII Returns &amp; Portfolio'!B36</f>
-        <v xml:space="preserve">Ca </v>
+        <v xml:space="preserve">C </v>
       </c>
       <c r="B13" s="63">
         <f>'HII Returns &amp; Portfolio'!C36*100</f>
-        <v>3.82</v>
+        <v>5.56</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'HII Returns &amp; Portfolio'!B37</f>
-        <v xml:space="preserve">C </v>
+        <v xml:space="preserve">D </v>
       </c>
       <c r="B14" s="63">
         <f>'HII Returns &amp; Portfolio'!C37*100</f>
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'HII Returns &amp; Portfolio'!B38</f>
         <v xml:space="preserve">NR </v>
       </c>
       <c r="B15" s="63">
         <f>'HII Returns &amp; Portfolio'!C38*100</f>
-        <v>10.47</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="C15">
         <v>14</v>
